--- a/medicine/Mort/Cimetière_de_Lower_Circular_Road/Cimetière_de_Lower_Circular_Road.xlsx
+++ b/medicine/Mort/Cimetière_de_Lower_Circular_Road/Cimetière_de_Lower_Circular_Road.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lower_Circular_Road</t>
+          <t>Cimetière_de_Lower_Circular_Road</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Lower Circular Rd est un vaste cimetière chrétien de Calcutta, ouvert en 1840 au croisement de Park Street et Mullick Bazar (Lower Circular Rd.) Remplaçant les autres cimetières chrétiens de Park street (tous progressivement fermés) il contient plus de 12000 tombes.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lower_Circular_Road</t>
+          <t>Cimetière_de_Lower_Circular_Road</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ouvert en 1840, peu après la fermeture (en 1820) du cimetière de Park Street - le grand cimetière historique du XVIIIe siècle - le cimetière de L.C.Rd, au croisement de 'Park street' (Mother Teresa sarani) et 'Lower circular Rd' (Acharya Jagadish Chandra Bose Rd) est le plus vaste et plus fréquemment visité des cimetières de Kolkata. Il compte plus de 12000 sépultures.  L’entrée principale se trouve sur la
 Lower Circ.Rd. Plusieurs tombes de soldats morts durant les deux guerres mondiales du XXe siècle sont entretenues par la ‘British Association for Cemeteries in South Asia’
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lower_Circular_Road</t>
+          <t>Cimetière_de_Lower_Circular_Road</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Crématorium</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Séparé du cimetière par une étroite rue (la ‘’Crematorium street’) se trouve le crématorium construit en 1906 par le ‘Christian Burial Board’. Fonctionnant au gaz avec un four crématoire ‘Toisoul, Fradet et Cie (Paris)’ importé de France, le crématorium cessa son activité au début des années 1980 et se trouve à l’abandon. L’homme de science indien et pionnier de la radio, Jagadish Chandra Bose, y fut incinéré en 1937. 
 La parcelle immédiatement voisine est occupée par la section chrétienne arménienne du cimetière près de l’entrée qui conduit à l’église arménienne Saint-Grégoire l’illuminateur. 
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Lower_Circular_Road</t>
+          <t>Cimetière_de_Lower_Circular_Road</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs personnalités de l’Inde britannique comme de l’Inde indépendante y sont enterrés :
 William Hay Macnaghten (1793-1841), gouverneur de Bombay, mort à Kaboul (Première guerre anglo-afghane)
